--- a/Public/Uploads/test.xlsx
+++ b/Public/Uploads/test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="496">
   <si>
     <t>帐号名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2015,6 +2015,26 @@
   </si>
   <si>
     <t>小主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小主1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小主2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小主3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小主4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小主5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2739,11 +2759,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="93" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2751,7 +2771,7 @@
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="45" style="21" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="52" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="52" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>
@@ -2772,7 +2792,7 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -5605,7 +5625,7 @@
         <v>4200</v>
       </c>
       <c r="H64" s="7">
-        <f t="shared" ref="H64:H73" si="2">D64*0.9</f>
+        <f t="shared" ref="H64:H72" si="2">D64*0.9</f>
         <v>2700</v>
       </c>
       <c r="I64" s="7">
@@ -6023,6 +6043,303 @@
       <c r="N73" s="6" t="s">
         <v>93</v>
       </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="7">
+        <v>138</v>
+      </c>
+      <c r="D74" s="7">
+        <v>2600</v>
+      </c>
+      <c r="E74" s="7">
+        <v>1400</v>
+      </c>
+      <c r="F74" s="7">
+        <v>2400</v>
+      </c>
+      <c r="G74" s="7">
+        <v>2600</v>
+      </c>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7">
+        <f>E74*0.9</f>
+        <v>1260</v>
+      </c>
+      <c r="J74" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L74" s="41">
+        <v>43008</v>
+      </c>
+      <c r="M74" s="53" t="s">
+        <v>491</v>
+      </c>
+      <c r="N74" s="33"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="7">
+        <v>138</v>
+      </c>
+      <c r="D75" s="7">
+        <v>2500</v>
+      </c>
+      <c r="E75" s="7">
+        <v>1400</v>
+      </c>
+      <c r="F75" s="7">
+        <v>2400</v>
+      </c>
+      <c r="G75" s="7">
+        <v>2500</v>
+      </c>
+      <c r="H75" s="7">
+        <f t="shared" ref="H75:H78" si="4">D75*0.9</f>
+        <v>2250</v>
+      </c>
+      <c r="I75" s="7">
+        <f>E75*0.9</f>
+        <v>1260</v>
+      </c>
+      <c r="J75" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L75" s="41">
+        <v>43008</v>
+      </c>
+      <c r="M75" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="N75" s="33"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="7">
+        <v>138</v>
+      </c>
+      <c r="D76" s="7">
+        <v>2200</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1400</v>
+      </c>
+      <c r="F76" s="7">
+        <v>2400</v>
+      </c>
+      <c r="G76" s="7">
+        <v>2300</v>
+      </c>
+      <c r="H76" s="7">
+        <f t="shared" si="4"/>
+        <v>1980</v>
+      </c>
+      <c r="I76" s="7">
+        <f>E76*0.9</f>
+        <v>1260</v>
+      </c>
+      <c r="J76" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L76" s="41">
+        <v>43008</v>
+      </c>
+      <c r="M76" s="53" t="s">
+        <v>493</v>
+      </c>
+      <c r="N76" s="33"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="7">
+        <v>138</v>
+      </c>
+      <c r="D77" s="7">
+        <v>2200</v>
+      </c>
+      <c r="E77" s="7">
+        <v>1400</v>
+      </c>
+      <c r="F77" s="7">
+        <v>2400</v>
+      </c>
+      <c r="G77" s="7">
+        <v>2200</v>
+      </c>
+      <c r="H77" s="7">
+        <f t="shared" si="4"/>
+        <v>1980</v>
+      </c>
+      <c r="I77" s="7">
+        <f>E77*0.9</f>
+        <v>1260</v>
+      </c>
+      <c r="J77" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L77" s="41">
+        <v>43008</v>
+      </c>
+      <c r="M77" s="53" t="s">
+        <v>494</v>
+      </c>
+      <c r="N77" s="33"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="7">
+        <v>138</v>
+      </c>
+      <c r="D78" s="7">
+        <v>2900</v>
+      </c>
+      <c r="E78" s="7">
+        <v>1400</v>
+      </c>
+      <c r="F78" s="7">
+        <v>2400</v>
+      </c>
+      <c r="G78" s="7">
+        <v>2900</v>
+      </c>
+      <c r="H78" s="7">
+        <f t="shared" si="4"/>
+        <v>2610</v>
+      </c>
+      <c r="I78" s="7">
+        <f>E78*0.9</f>
+        <v>1260</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L78" s="41">
+        <v>43008</v>
+      </c>
+      <c r="M78" s="53" t="s">
+        <v>495</v>
+      </c>
+      <c r="N78" s="33"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="53"/>
+      <c r="N79" s="6"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="53"/>
+      <c r="N80" s="6"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="41"/>
+      <c r="M81" s="53"/>
+      <c r="N81" s="6"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="53"/>
+      <c r="N82" s="6"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="41"/>
+      <c r="M83" s="53"/>
+      <c r="N83" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
